--- a/Rail/pcb1_12V_XL_2023-07-07_CPL1.xlsx
+++ b/Rail/pcb1_12V_XL_2023-07-07_CPL1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ms\ISOBUS_Hardware\Rail\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2848AE75-263B-4E3E-911A-F0A85E65AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9945ABFE-1269-4457-9E45-BE67E8E2E1BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-5565" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="112">
   <si>
     <t>Designator</t>
   </si>
@@ -73,9 +73,6 @@
     <t>C10</t>
   </si>
   <si>
-    <t>C11</t>
-  </si>
-  <si>
     <t>C12</t>
   </si>
   <si>
@@ -353,6 +350,12 @@
   </si>
   <si>
     <t>U6</t>
+  </si>
+  <si>
+    <t>C23</t>
+  </si>
+  <si>
+    <t>D006</t>
   </si>
 </sst>
 </file>
@@ -710,10 +713,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E106"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E106"/>
+      <selection activeCell="E2" sqref="E2:E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15"/>
@@ -917,16 +920,16 @@
         <v>17</v>
       </c>
       <c r="B12" s="3">
-        <v>82.4</v>
+        <v>81.11</v>
       </c>
       <c r="C12" s="3">
-        <v>73.06</v>
+        <v>72.930000000000007</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E12" s="3">
-        <v>315</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -934,16 +937,16 @@
         <v>18</v>
       </c>
       <c r="B13" s="3">
-        <v>80.53</v>
+        <v>67.31</v>
       </c>
       <c r="C13" s="3">
-        <v>74.180000000000007</v>
+        <v>31.14</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="3">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -951,16 +954,16 @@
         <v>19</v>
       </c>
       <c r="B14" s="3">
-        <v>67.31</v>
+        <v>58.42</v>
       </c>
       <c r="C14" s="3">
-        <v>31.14</v>
+        <v>21.61</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -968,16 +971,16 @@
         <v>20</v>
       </c>
       <c r="B15" s="3">
-        <v>58.42</v>
+        <v>79.180000000000007</v>
       </c>
       <c r="C15" s="3">
-        <v>21.61</v>
+        <v>78.760000000000005</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>270</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -985,16 +988,16 @@
         <v>21</v>
       </c>
       <c r="B16" s="3">
-        <v>79.180000000000007</v>
+        <v>68.58</v>
       </c>
       <c r="C16" s="3">
-        <v>78.760000000000005</v>
+        <v>21.61</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="3">
-        <v>270</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1002,10 +1005,10 @@
         <v>22</v>
       </c>
       <c r="B17" s="3">
-        <v>68.58</v>
+        <v>53.34</v>
       </c>
       <c r="C17" s="3">
-        <v>21.61</v>
+        <v>64.790000000000006</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>6</v>
@@ -1019,16 +1022,16 @@
         <v>23</v>
       </c>
       <c r="B18" s="3">
-        <v>53.34</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="C18" s="3">
-        <v>64.790000000000006</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E18" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1036,16 +1039,16 @@
         <v>24</v>
       </c>
       <c r="B19" s="3">
-        <v>69.849999999999994</v>
+        <v>53.34</v>
       </c>
       <c r="C19" s="3">
-        <v>40.659999999999997</v>
+        <v>53.98</v>
       </c>
       <c r="D19" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1053,16 +1056,16 @@
         <v>25</v>
       </c>
       <c r="B20" s="3">
-        <v>53.34</v>
+        <v>87.63</v>
       </c>
       <c r="C20" s="3">
-        <v>53.98</v>
+        <v>31.14</v>
       </c>
       <c r="D20" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1070,16 +1073,16 @@
         <v>26</v>
       </c>
       <c r="B21" s="3">
-        <v>87.63</v>
+        <v>78.739999999999995</v>
       </c>
       <c r="C21" s="3">
-        <v>31.14</v>
+        <v>21.61</v>
       </c>
       <c r="D21" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1087,7 +1090,7 @@
         <v>27</v>
       </c>
       <c r="B22" s="3">
-        <v>78.739999999999995</v>
+        <v>88.9</v>
       </c>
       <c r="C22" s="3">
         <v>21.61</v>
@@ -1101,24 +1104,24 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="3" t="s">
-        <v>28</v>
+        <v>110</v>
       </c>
       <c r="B23" s="3">
-        <v>88.9</v>
+        <v>85.09</v>
       </c>
       <c r="C23" s="3">
-        <v>21.61</v>
+        <v>50.8</v>
       </c>
       <c r="D23" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B24" s="3">
         <v>59.69</v>
@@ -1135,7 +1138,7 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="3">
         <v>57.15</v>
@@ -1152,7 +1155,7 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B26" s="3">
         <v>49.53</v>
@@ -1169,7 +1172,7 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B27" s="3">
         <v>46.99</v>
@@ -1186,7 +1189,7 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B28" s="3">
         <v>26.67</v>
@@ -1203,7 +1206,7 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B29" s="3">
         <v>16.510000000000002</v>
@@ -1220,7 +1223,7 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B30" s="3">
         <v>29.21</v>
@@ -1237,7 +1240,7 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="3">
         <v>19.05</v>
@@ -1254,7 +1257,7 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B32" s="3">
         <v>36.83</v>
@@ -1271,7 +1274,7 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B33" s="3">
         <v>26.67</v>
@@ -1288,7 +1291,7 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B34" s="3">
         <v>39.369999999999997</v>
@@ -1305,7 +1308,7 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B35" s="3">
         <v>31.75</v>
@@ -1322,7 +1325,7 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B36" s="3">
         <v>46.99</v>
@@ -1339,7 +1342,7 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B37" s="3">
         <v>36.83</v>
@@ -1356,7 +1359,7 @@
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B38" s="3">
         <v>49.53</v>
@@ -1373,7 +1376,7 @@
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="3">
         <v>39.369999999999997</v>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="3">
         <v>7.87</v>
@@ -1407,7 +1410,7 @@
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B41" s="3">
         <v>18.41</v>
@@ -1424,7 +1427,7 @@
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B42" s="3">
         <v>27.3</v>
@@ -1441,7 +1444,7 @@
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B43" s="3">
         <v>38.729999999999997</v>
@@ -1458,7 +1461,7 @@
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B44" s="3">
         <v>47.37</v>
@@ -1475,13 +1478,13 @@
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B45" s="3">
         <v>88.65</v>
       </c>
       <c r="C45" s="3">
-        <v>81.94</v>
+        <v>85.75</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>6</v>
@@ -1492,27 +1495,27 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="3" t="s">
-        <v>51</v>
+        <v>111</v>
       </c>
       <c r="B46" s="3">
-        <v>67.95</v>
+        <v>86.36</v>
       </c>
       <c r="C46" s="3">
-        <v>17.8</v>
+        <v>76.2</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E46" s="3">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B47" s="3">
-        <v>59.05</v>
+        <v>67.95</v>
       </c>
       <c r="C47" s="3">
         <v>17.8</v>
@@ -1521,15 +1524,15 @@
         <v>6</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B48" s="3">
-        <v>88.01</v>
+        <v>59.05</v>
       </c>
       <c r="C48" s="3">
         <v>17.8</v>
@@ -1538,15 +1541,15 @@
         <v>6</v>
       </c>
       <c r="E48" s="3">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B49" s="3">
-        <v>79.38</v>
+        <v>88.01</v>
       </c>
       <c r="C49" s="3">
         <v>17.8</v>
@@ -1555,18 +1558,18 @@
         <v>6</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B50" s="3">
-        <v>80.86</v>
+        <v>79.38</v>
       </c>
       <c r="C50" s="3">
-        <v>87.68</v>
+        <v>17.8</v>
       </c>
       <c r="D50" s="2" t="s">
         <v>6</v>
@@ -1577,27 +1580,27 @@
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B51" s="3">
-        <v>48.26</v>
+        <v>80.86</v>
       </c>
       <c r="C51" s="3">
-        <v>60.96</v>
+        <v>87.68</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E51" s="3">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B52" s="3">
-        <v>17.78</v>
+        <v>48.26</v>
       </c>
       <c r="C52" s="3">
         <v>60.96</v>
@@ -1611,10 +1614,10 @@
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B53" s="3">
-        <v>27.94</v>
+        <v>17.78</v>
       </c>
       <c r="C53" s="3">
         <v>60.96</v>
@@ -1628,10 +1631,10 @@
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B54" s="3">
-        <v>38.1</v>
+        <v>27.94</v>
       </c>
       <c r="C54" s="3">
         <v>60.96</v>
@@ -1645,95 +1648,95 @@
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B55" s="3">
-        <v>81.66</v>
+        <v>38.1</v>
       </c>
       <c r="C55" s="3">
-        <v>67.709999999999994</v>
+        <v>60.96</v>
       </c>
       <c r="D55" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E55" s="3">
-        <v>225</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B56" s="3">
-        <v>80.84</v>
+        <v>82.09</v>
       </c>
       <c r="C56" s="3">
-        <v>82.53</v>
+        <v>63.96</v>
       </c>
       <c r="D56" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E56" s="3">
-        <v>90</v>
+        <v>135</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="3" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B57" s="3">
-        <v>44.48</v>
+        <v>80.84</v>
       </c>
       <c r="C57" s="3">
-        <v>35.119999999999997</v>
+        <v>82.53</v>
       </c>
       <c r="D57" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E57" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="3" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B58" s="3">
-        <v>78.3</v>
+        <v>44.48</v>
       </c>
       <c r="C58" s="3">
-        <v>82.53</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="D58" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E58" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B59" s="3">
-        <v>41.88</v>
+        <v>78.3</v>
       </c>
       <c r="C59" s="3">
-        <v>35.119999999999997</v>
+        <v>82.53</v>
       </c>
       <c r="D59" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E59" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B60" s="3">
-        <v>64.8</v>
+        <v>41.88</v>
       </c>
       <c r="C60" s="3">
         <v>35.119999999999997</v>
@@ -1747,10 +1750,10 @@
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B61" s="3">
-        <v>62.2</v>
+        <v>64.8</v>
       </c>
       <c r="C61" s="3">
         <v>35.119999999999997</v>
@@ -1764,13 +1767,13 @@
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B62" s="3">
-        <v>34.29</v>
+        <v>62.2</v>
       </c>
       <c r="C62" s="3">
-        <v>40.659999999999997</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="D62" s="2" t="s">
         <v>6</v>
@@ -1781,10 +1784,10 @@
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B63" s="3">
-        <v>67.31</v>
+        <v>34.29</v>
       </c>
       <c r="C63" s="3">
         <v>40.659999999999997</v>
@@ -1798,13 +1801,13 @@
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B64" s="3">
-        <v>85.12</v>
+        <v>67.31</v>
       </c>
       <c r="C64" s="3">
-        <v>35.119999999999997</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="D64" s="2" t="s">
         <v>6</v>
@@ -1815,13 +1818,13 @@
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B65" s="3">
-        <v>26.67</v>
+        <v>85.12</v>
       </c>
       <c r="C65" s="3">
-        <v>40.659999999999997</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="D65" s="2" t="s">
         <v>6</v>
@@ -1832,13 +1835,13 @@
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B66" s="3">
-        <v>82.52</v>
+        <v>26.67</v>
       </c>
       <c r="C66" s="3">
-        <v>35.119999999999997</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="D66" s="2" t="s">
         <v>6</v>
@@ -1849,13 +1852,13 @@
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B67" s="3">
-        <v>74.930000000000007</v>
+        <v>82.52</v>
       </c>
       <c r="C67" s="3">
-        <v>40.659999999999997</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="D67" s="2" t="s">
         <v>6</v>
@@ -1866,13 +1869,13 @@
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B68" s="3">
-        <v>21.56</v>
+        <v>74.930000000000007</v>
       </c>
       <c r="C68" s="3">
-        <v>35.119999999999997</v>
+        <v>40.659999999999997</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>6</v>
@@ -1883,10 +1886,10 @@
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="3" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B69" s="3">
-        <v>24.16</v>
+        <v>21.56</v>
       </c>
       <c r="C69" s="3">
         <v>35.119999999999997</v>
@@ -1900,30 +1903,30 @@
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B70" s="3">
-        <v>24.13</v>
+        <v>24.16</v>
       </c>
       <c r="C70" s="3">
-        <v>85.73</v>
+        <v>35.119999999999997</v>
       </c>
       <c r="D70" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E70" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" s="3">
-        <v>25.4</v>
+        <v>24.13</v>
       </c>
       <c r="C71" s="3">
-        <v>80.650000000000006</v>
+        <v>85.73</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>6</v>
@@ -1934,47 +1937,47 @@
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="3" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B72" s="3">
-        <v>16.510000000000002</v>
+        <v>25.4</v>
       </c>
       <c r="C72" s="3">
-        <v>74.3</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D72" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E72" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B73" s="3">
-        <v>31.75</v>
+        <v>16.510000000000002</v>
       </c>
       <c r="C73" s="3">
-        <v>85.73</v>
+        <v>74.3</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E73" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3">
-        <v>30.48</v>
+        <v>31.75</v>
       </c>
       <c r="C74" s="3">
-        <v>80.650000000000006</v>
+        <v>85.73</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>6</v>
@@ -1985,44 +1988,44 @@
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="3" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B75" s="3">
-        <v>19.05</v>
+        <v>30.48</v>
       </c>
       <c r="C75" s="3">
-        <v>74.3</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D75" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E75" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B76" s="3">
-        <v>62.23</v>
+        <v>19.05</v>
       </c>
       <c r="C76" s="3">
-        <v>85.73</v>
+        <v>74.3</v>
       </c>
       <c r="D76" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E76" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B77" s="3">
-        <v>54.61</v>
+        <v>62.23</v>
       </c>
       <c r="C77" s="3">
         <v>85.73</v>
@@ -2036,13 +2039,13 @@
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B78" s="3">
-        <v>60.96</v>
+        <v>54.61</v>
       </c>
       <c r="C78" s="3">
-        <v>80.650000000000006</v>
+        <v>85.73</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>6</v>
@@ -2053,10 +2056,10 @@
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B79" s="3">
-        <v>55.88</v>
+        <v>60.96</v>
       </c>
       <c r="C79" s="3">
         <v>80.650000000000006</v>
@@ -2070,27 +2073,27 @@
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B80" s="3">
-        <v>49.53</v>
+        <v>55.88</v>
       </c>
       <c r="C80" s="3">
-        <v>74.3</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D80" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E80" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B81" s="3">
-        <v>46.99</v>
+        <v>49.53</v>
       </c>
       <c r="C81" s="3">
         <v>74.3</v>
@@ -2104,30 +2107,30 @@
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B82" s="3">
-        <v>34.29</v>
+        <v>46.99</v>
       </c>
       <c r="C82" s="3">
-        <v>85.73</v>
+        <v>74.3</v>
       </c>
       <c r="D82" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E82" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B83" s="3">
-        <v>35.56</v>
+        <v>34.29</v>
       </c>
       <c r="C83" s="3">
-        <v>80.650000000000006</v>
+        <v>85.73</v>
       </c>
       <c r="D83" s="2" t="s">
         <v>6</v>
@@ -2138,47 +2141,47 @@
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B84" s="3">
-        <v>26.67</v>
+        <v>35.56</v>
       </c>
       <c r="C84" s="3">
-        <v>74.3</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D84" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B85" s="3">
-        <v>41.91</v>
+        <v>26.67</v>
       </c>
       <c r="C85" s="3">
-        <v>85.73</v>
+        <v>74.3</v>
       </c>
       <c r="D85" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B86" s="3">
-        <v>40.64</v>
+        <v>41.91</v>
       </c>
       <c r="C86" s="3">
-        <v>80.650000000000006</v>
+        <v>85.73</v>
       </c>
       <c r="D86" s="2" t="s">
         <v>6</v>
@@ -2189,47 +2192,47 @@
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B87" s="3">
-        <v>31.75</v>
+        <v>40.64</v>
       </c>
       <c r="C87" s="3">
-        <v>74.3</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D87" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E87" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B88" s="3">
-        <v>44.45</v>
+        <v>31.75</v>
       </c>
       <c r="C88" s="3">
-        <v>85.73</v>
+        <v>74.3</v>
       </c>
       <c r="D88" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E88" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B89" s="3">
-        <v>45.72</v>
+        <v>44.45</v>
       </c>
       <c r="C89" s="3">
-        <v>80.650000000000006</v>
+        <v>85.73</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>6</v>
@@ -2240,47 +2243,47 @@
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B90" s="3">
-        <v>36.83</v>
+        <v>45.72</v>
       </c>
       <c r="C90" s="3">
-        <v>74.3</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E90" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B91" s="3">
-        <v>52.07</v>
+        <v>36.83</v>
       </c>
       <c r="C91" s="3">
-        <v>85.73</v>
+        <v>74.3</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E91" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B92" s="3">
-        <v>50.8</v>
+        <v>52.07</v>
       </c>
       <c r="C92" s="3">
-        <v>80.650000000000006</v>
+        <v>85.73</v>
       </c>
       <c r="D92" s="2" t="s">
         <v>6</v>
@@ -2291,47 +2294,47 @@
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B93" s="3">
-        <v>39.369999999999997</v>
+        <v>50.8</v>
       </c>
       <c r="C93" s="3">
-        <v>74.3</v>
+        <v>80.650000000000006</v>
       </c>
       <c r="D93" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E93" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B94" s="3">
-        <v>14.48</v>
+        <v>39.369999999999997</v>
       </c>
       <c r="C94" s="3">
-        <v>17.8</v>
+        <v>74.3</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E94" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B95" s="3">
-        <v>31.24</v>
+        <v>14.48</v>
       </c>
       <c r="C95" s="3">
-        <v>17.8</v>
+        <v>16.53</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>6</v>
@@ -2342,30 +2345,30 @@
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B96" s="3">
-        <v>34.799999999999997</v>
+        <v>31.24</v>
       </c>
       <c r="C96" s="3">
-        <v>17.8</v>
+        <v>16.53</v>
       </c>
       <c r="D96" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E96" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="3" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B97" s="3">
-        <v>51.31</v>
+        <v>34.799999999999997</v>
       </c>
       <c r="C97" s="3">
-        <v>17.8</v>
+        <v>16.53</v>
       </c>
       <c r="D97" s="2" t="s">
         <v>6</v>
@@ -2376,64 +2379,64 @@
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="3" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B98" s="3">
-        <v>91.95</v>
+        <v>51.31</v>
       </c>
       <c r="C98" s="3">
-        <v>17.8</v>
+        <v>16.53</v>
       </c>
       <c r="D98" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E98" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B99" s="3">
-        <v>71.88</v>
+        <v>91.95</v>
       </c>
       <c r="C99" s="3">
-        <v>17.8</v>
+        <v>16.53</v>
       </c>
       <c r="D99" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3">
-        <v>55.12</v>
+        <v>71.88</v>
       </c>
       <c r="C100" s="3">
-        <v>17.8</v>
+        <v>16.53</v>
       </c>
       <c r="D100" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="3">
-        <v>90</v>
+        <v>270</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B101" s="3">
-        <v>75.44</v>
+        <v>55.12</v>
       </c>
       <c r="C101" s="3">
-        <v>17.8</v>
+        <v>16.53</v>
       </c>
       <c r="D101" s="2" t="s">
         <v>6</v>
@@ -2444,27 +2447,27 @@
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B102" s="3">
-        <v>22.86</v>
+        <v>75.44</v>
       </c>
       <c r="C102" s="3">
-        <v>29.23</v>
+        <v>16.53</v>
       </c>
       <c r="D102" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E102" s="3">
-        <v>270</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="3" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B103" s="3">
-        <v>43.18</v>
+        <v>22.86</v>
       </c>
       <c r="C103" s="3">
         <v>29.23</v>
@@ -2478,13 +2481,13 @@
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B104" s="3">
-        <v>53.34</v>
+        <v>43.18</v>
       </c>
       <c r="C104" s="3">
-        <v>59.08</v>
+        <v>29.23</v>
       </c>
       <c r="D104" s="2" t="s">
         <v>6</v>
@@ -2495,13 +2498,13 @@
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B105" s="3">
-        <v>63.5</v>
+        <v>53.34</v>
       </c>
       <c r="C105" s="3">
-        <v>29.23</v>
+        <v>59.08</v>
       </c>
       <c r="D105" s="2" t="s">
         <v>6</v>
@@ -2512,10 +2515,10 @@
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="3" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B106" s="3">
-        <v>83.82</v>
+        <v>63.5</v>
       </c>
       <c r="C106" s="3">
         <v>29.23</v>
@@ -2524,6 +2527,23 @@
         <v>6</v>
       </c>
       <c r="E106" s="3">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="3">
+        <v>83.82</v>
+      </c>
+      <c r="C107" s="3">
+        <v>29.23</v>
+      </c>
+      <c r="D107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="3">
         <v>270</v>
       </c>
     </row>
